--- a/medicine/Psychotrope/Grüner_Veltliner/Grüner_Veltliner.xlsx
+++ b/medicine/Psychotrope/Grüner_Veltliner/Grüner_Veltliner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gr%C3%BCner_Veltliner</t>
+          <t>Grüner_Veltliner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Grüner Veltliner est un cépage de vin blanc d'Autriche particulièrement répandu en Basse-Autriche, en particulier dans les régions de Vienne, du Burgenland et la Styrie. Hors de cette contrée, il n'est que peu connu mais on le rencontre également dans quelques régions de Tchéquie et de Hongrie, l'Allemagne, de Slovaquie et l'Italie. Depuis peu, il est cultivé en petite quantité en Nouvelle-Zélande.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gr%C3%BCner_Veltliner</t>
+          <t>Grüner_Veltliner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Origine et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grüner Veltliner est censé remonter à l'époque romaine, son nom étant dérivé de Veltlin (Valtellina) dans le nord de l'Italie, bien que les ampelographes et les historiens du vin n'aient pas encore trouvé de lien entre le raisin et la commune italienne. Le raisin est probablement indigène en Autriche. Le nom actuel est apparu dans un document pour la première fois en 1855 - avant cette date, on l'appelait Weißgipfler.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gr%C3%BCner_Veltliner</t>
+          <t>Grüner_Veltliner</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Origine génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2007, l'analyse de l'ADN a confirmé que Grüner Veltliner était un croisement naturel de Savagnin (Traminer) et d'un cépage obscur autrichien du village de Sankt Georgen am Leithagebirge situé près d'Eisenstadt dans la région du Burgenland dans l'est de l'Autriche[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, l'analyse de l'ADN a confirmé que Grüner Veltliner était un croisement naturel de Savagnin (Traminer) et d'un cépage obscur autrichien du village de Sankt Georgen am Leithagebirge situé près d'Eisenstadt dans la région du Burgenland dans l'est de l'Autriche.
 Le cépage de St. Georgen était autrefois connu sous le synonyme de Grün Muskatellar mais semble n'avoir aucun lien direct avec la famille de raisins Muscat.
 </t>
         </is>
